--- a/Code/Results/Cases/Case_7_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_35/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.495972879074884</v>
+        <v>2.479542176748112</v>
       </c>
       <c r="C2">
-        <v>0.6048423759720549</v>
+        <v>0.5965930520935387</v>
       </c>
       <c r="D2">
-        <v>0.0284924966361082</v>
+        <v>0.04311690701489113</v>
       </c>
       <c r="E2">
-        <v>0.1976021915827531</v>
+        <v>0.1967928356842137</v>
       </c>
       <c r="F2">
-        <v>2.071884076933884</v>
+        <v>0.4816401892242865</v>
       </c>
       <c r="G2">
-        <v>0.000777407352725826</v>
+        <v>0.0007800506160781202</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.972871650375879</v>
+        <v>0.9686349301324952</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.656260727173191</v>
+        <v>1.310329790599837</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.152067527245947</v>
+        <v>2.158281802062788</v>
       </c>
       <c r="C3">
-        <v>0.5246115219640046</v>
+        <v>0.5279387110420544</v>
       </c>
       <c r="D3">
-        <v>0.02886629522702933</v>
+        <v>0.03864381683560936</v>
       </c>
       <c r="E3">
-        <v>0.1716392597427543</v>
+        <v>0.1719972415108586</v>
       </c>
       <c r="F3">
-        <v>1.841740886951229</v>
+        <v>0.4407969280248381</v>
       </c>
       <c r="G3">
-        <v>0.000785879238549879</v>
+        <v>0.0007847524405064478</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8371604595796569</v>
+        <v>0.8386809295621163</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.478483365550346</v>
+        <v>1.224646528172684</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.943742095537175</v>
+        <v>1.961427101248177</v>
       </c>
       <c r="C4">
-        <v>0.4758996022912925</v>
+        <v>0.4858122416594881</v>
       </c>
       <c r="D4">
-        <v>0.0291652199731729</v>
+        <v>0.03589790986656993</v>
       </c>
       <c r="E4">
-        <v>0.1561745693767236</v>
+        <v>0.1573105314415741</v>
       </c>
       <c r="F4">
-        <v>1.705074532919937</v>
+        <v>0.4171622227967831</v>
       </c>
       <c r="G4">
-        <v>0.0007912066577447989</v>
+        <v>0.0007877273117862924</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7553181845996164</v>
+        <v>0.7594768759424682</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.373149053772991</v>
+        <v>1.176836790746933</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.859445243048157</v>
+        <v>1.881271526957335</v>
       </c>
       <c r="C5">
-        <v>0.4561600574500346</v>
+        <v>0.4686456521566811</v>
       </c>
       <c r="D5">
-        <v>0.0293028098354533</v>
+        <v>0.03477872158889284</v>
       </c>
       <c r="E5">
-        <v>0.1499768424465984</v>
+        <v>0.1514470252911835</v>
       </c>
       <c r="F5">
-        <v>1.65041770564676</v>
+        <v>0.4078674755204261</v>
       </c>
       <c r="G5">
-        <v>0.0007934110925155748</v>
+        <v>0.0007889622739025715</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7222842592173535</v>
+        <v>0.7273233837491873</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.331078292766662</v>
+        <v>1.158477396443686</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.845480732117636</v>
+        <v>1.867964624639313</v>
       </c>
       <c r="C6">
-        <v>0.4528882715385976</v>
+        <v>0.4657949861008888</v>
       </c>
       <c r="D6">
-        <v>0.0293265635254194</v>
+        <v>0.03459285882104979</v>
       </c>
       <c r="E6">
-        <v>0.1489535831766844</v>
+        <v>0.1504803435946656</v>
       </c>
       <c r="F6">
-        <v>1.641400912358975</v>
+        <v>0.4063436778118614</v>
       </c>
       <c r="G6">
-        <v>0.0007937792105035783</v>
+        <v>0.0007891687240758821</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7168166375778142</v>
+        <v>0.7219910357469246</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.324141087946572</v>
+        <v>1.155494335979625</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.942602964193981</v>
+        <v>1.960345880969328</v>
       </c>
       <c r="C7">
-        <v>0.4756329729160029</v>
+        <v>0.4855807342703997</v>
       </c>
       <c r="D7">
-        <v>0.02916701377583308</v>
+        <v>0.03588281739531141</v>
       </c>
       <c r="E7">
-        <v>0.1560905820751231</v>
+        <v>0.1572309799843836</v>
       </c>
       <c r="F7">
-        <v>1.704333383382092</v>
+        <v>0.4170355414461397</v>
       </c>
       <c r="G7">
-        <v>0.0007912362496462919</v>
+        <v>0.0007877438743203458</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7548714622982047</v>
+        <v>0.7590427774459272</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.372578350490258</v>
+        <v>1.176584747584656</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.376733348393884</v>
+        <v>2.368665682194489</v>
       </c>
       <c r="C8">
-        <v>0.5770472437876037</v>
+        <v>0.5729111308889969</v>
       </c>
       <c r="D8">
-        <v>0.0286059094987472</v>
+        <v>0.04157423668338822</v>
       </c>
       <c r="E8">
-        <v>0.188541372036596</v>
+        <v>0.1881230625413508</v>
       </c>
       <c r="F8">
-        <v>1.99148417497635</v>
+        <v>0.4672415583277001</v>
       </c>
       <c r="G8">
-        <v>0.0007803035607973925</v>
+        <v>0.0007816539061676356</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9257348504059379</v>
+        <v>0.9236890185640121</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.594102294155888</v>
+        <v>1.279738066272785</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.256391133191926</v>
+        <v>3.174371444920155</v>
       </c>
       <c r="C9">
-        <v>0.7816826648563051</v>
+        <v>0.7447197301738697</v>
       </c>
       <c r="D9">
-        <v>0.02814241447385868</v>
+        <v>0.05275820811017695</v>
       </c>
       <c r="E9">
-        <v>0.2567520886422869</v>
+        <v>0.2536466480386821</v>
       </c>
       <c r="F9">
-        <v>2.598053757011115</v>
+        <v>0.5784192468172265</v>
       </c>
       <c r="G9">
-        <v>0.0007597673694160557</v>
+        <v>0.0007703817649448358</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.275420861325088</v>
+        <v>1.252465228985187</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.064237325499292</v>
+        <v>1.524148143433109</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.92923791820283</v>
+        <v>3.772162567319526</v>
       </c>
       <c r="C10">
-        <v>0.9377765925370909</v>
+        <v>0.8718070125367774</v>
       </c>
       <c r="D10">
-        <v>0.02832935404875414</v>
+        <v>0.06101852461515733</v>
       </c>
       <c r="E10">
-        <v>0.3109213900819086</v>
+        <v>0.3058319589690015</v>
       </c>
       <c r="F10">
-        <v>3.08068485404911</v>
+        <v>0.6697682029141276</v>
       </c>
       <c r="G10">
-        <v>0.0007450813734769679</v>
+        <v>0.0007624675564232591</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.545776428809788</v>
+        <v>1.499510573883811</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.439974462104772</v>
+        <v>1.735463428787853</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.243548196131144</v>
+        <v>4.046070613233383</v>
       </c>
       <c r="C11">
-        <v>1.010629853640182</v>
+        <v>0.9299386952976079</v>
       </c>
       <c r="D11">
-        <v>0.02856682561582957</v>
+        <v>0.06479324920951512</v>
       </c>
       <c r="E11">
-        <v>0.3367819509333927</v>
+        <v>0.3307072206753716</v>
       </c>
       <c r="F11">
-        <v>3.311030658694619</v>
+        <v>0.7138894887817457</v>
       </c>
       <c r="G11">
-        <v>0.0007384488679939845</v>
+        <v>0.0007589370109541714</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.672884884728731</v>
+        <v>1.613558708481179</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.619740063523551</v>
+        <v>1.839970439065524</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.363992396458798</v>
+        <v>4.150138058462574</v>
       </c>
       <c r="C12">
-        <v>1.038541496465399</v>
+        <v>0.9520092885211398</v>
       </c>
       <c r="D12">
-        <v>0.02868251764507335</v>
+        <v>0.06622577711996769</v>
       </c>
       <c r="E12">
-        <v>0.3467833933858131</v>
+        <v>0.3403140779537637</v>
       </c>
       <c r="F12">
-        <v>3.400079051580434</v>
+        <v>0.7310086721688123</v>
       </c>
       <c r="G12">
-        <v>0.0007359404703677352</v>
+        <v>0.0007576092075476806</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.721728453757734</v>
+        <v>1.65702824653583</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.689304715656291</v>
+        <v>1.880885344043065</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.337985166929286</v>
+        <v>4.127708918850828</v>
       </c>
       <c r="C13">
-        <v>1.032514800531544</v>
+        <v>0.9472532436856227</v>
       </c>
       <c r="D13">
-        <v>0.02865638677689475</v>
+        <v>0.06591710634317849</v>
       </c>
       <c r="E13">
-        <v>0.3446195368416696</v>
+        <v>0.3382363407973443</v>
       </c>
       <c r="F13">
-        <v>3.380815154744084</v>
+        <v>0.7273027360857327</v>
       </c>
       <c r="G13">
-        <v>0.00073648062255139</v>
+        <v>0.0007578947822038062</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.711175454982737</v>
+        <v>1.647653042024217</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.674252534045394</v>
+        <v>1.87201168258963</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.253427225498456</v>
+        <v>4.054625031281148</v>
       </c>
       <c r="C14">
-        <v>1.012919307096922</v>
+        <v>0.9317532362158261</v>
       </c>
       <c r="D14">
-        <v>0.02857580282274697</v>
+        <v>0.06491103749287674</v>
       </c>
       <c r="E14">
-        <v>0.337600384575282</v>
+        <v>0.3314936869576215</v>
       </c>
       <c r="F14">
-        <v>3.318318532807979</v>
+        <v>0.7152893925850634</v>
       </c>
       <c r="G14">
-        <v>0.000738242460116832</v>
+        <v>0.0007588275938993057</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.676888299390455</v>
+        <v>1.617129064260013</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.625431922070518</v>
+        <v>1.843308849391263</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.201825881419325</v>
+        <v>4.009905805224548</v>
       </c>
       <c r="C15">
-        <v>1.00096054305854</v>
+        <v>0.9222668683255222</v>
       </c>
       <c r="D15">
-        <v>0.02852992402118559</v>
+        <v>0.06429521887337586</v>
       </c>
       <c r="E15">
-        <v>0.3333291992055507</v>
+        <v>0.3273887358693059</v>
       </c>
       <c r="F15">
-        <v>3.28028342860631</v>
+        <v>0.7079857736970041</v>
       </c>
       <c r="G15">
-        <v>0.0007393219310801719</v>
+        <v>0.0007594001305821337</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.655982734813051</v>
+        <v>1.598470299279541</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.595729195743957</v>
+        <v>1.825906324211275</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.908882175446593</v>
+        <v>3.754306769623327</v>
       </c>
       <c r="C16">
-        <v>0.9330573782624185</v>
+        <v>0.8680153487705411</v>
       </c>
       <c r="D16">
-        <v>0.02831721610091975</v>
+        <v>0.06077223630414608</v>
       </c>
       <c r="E16">
-        <v>0.309258598923563</v>
+        <v>0.3042311379211711</v>
       </c>
       <c r="F16">
-        <v>3.065870546716184</v>
+        <v>0.6669399503029325</v>
       </c>
       <c r="G16">
-        <v>0.0007455154857666053</v>
+        <v>0.0007626996142194248</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.537562192263536</v>
+        <v>1.492094316592301</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.428422332701501</v>
+        <v>1.728813558280336</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.731437188906909</v>
+        <v>3.598051317013528</v>
       </c>
       <c r="C17">
-        <v>0.8919123907262474</v>
+        <v>0.8348233547657742</v>
       </c>
       <c r="D17">
-        <v>0.02822830509535734</v>
+        <v>0.05861582386378217</v>
       </c>
       <c r="E17">
-        <v>0.2948263425369717</v>
+        <v>0.290331806428739</v>
       </c>
       <c r="F17">
-        <v>2.937279362328837</v>
+        <v>0.6424459302659074</v>
       </c>
       <c r="G17">
-        <v>0.0007493248830978683</v>
+        <v>0.0007647409806906894</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.466049056766138</v>
+        <v>1.427291699352836</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.328195958705649</v>
+        <v>1.671488910187207</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.630133889584329</v>
+        <v>3.508358741345717</v>
       </c>
       <c r="C18">
-        <v>0.868416598826343</v>
+        <v>0.8157614743366537</v>
       </c>
       <c r="D18">
-        <v>0.02819124801319361</v>
+        <v>0.05737707457650743</v>
       </c>
       <c r="E18">
-        <v>0.2866377194409253</v>
+        <v>0.2824426329386398</v>
       </c>
       <c r="F18">
-        <v>2.864314889420456</v>
+        <v>0.628596408915584</v>
       </c>
       <c r="G18">
-        <v>0.00075152074065292</v>
+        <v>0.0007659217350748539</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.425296606731038</v>
+        <v>1.390172984070304</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.271365618877155</v>
+        <v>1.639297120973055</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.595957878160448</v>
+        <v>3.478019764930366</v>
       </c>
       <c r="C19">
-        <v>0.8604888414562311</v>
+        <v>0.8093121447456326</v>
       </c>
       <c r="D19">
-        <v>0.02818101295388686</v>
+        <v>0.05695790447595783</v>
       </c>
       <c r="E19">
-        <v>0.2838835684589185</v>
+        <v>0.2797889033538752</v>
       </c>
       <c r="F19">
-        <v>2.839774168112712</v>
+        <v>0.6239469801885065</v>
       </c>
       <c r="G19">
-        <v>0.0007522651489930164</v>
+        <v>0.0007663226798778748</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.411560496473641</v>
+        <v>1.377630454325683</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.252258013788108</v>
+        <v>1.628527537826272</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.750246406984218</v>
+        <v>3.614665774630851</v>
       </c>
       <c r="C20">
-        <v>0.8962743855896633</v>
+        <v>0.8383535893412386</v>
       </c>
       <c r="D20">
-        <v>0.0282362865774779</v>
+        <v>0.05884521137074472</v>
       </c>
       <c r="E20">
-        <v>0.296350819674899</v>
+        <v>0.291800345616366</v>
       </c>
       <c r="F20">
-        <v>2.950863022369504</v>
+        <v>0.6450283513498505</v>
       </c>
       <c r="G20">
-        <v>0.0007489188954406228</v>
+        <v>0.0007645229952633828</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.473621626796231</v>
+        <v>1.434173812181612</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.33877915712695</v>
+        <v>1.677509564118878</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.278223278319444</v>
+        <v>4.076081677453374</v>
       </c>
       <c r="C21">
-        <v>1.018665682986409</v>
+        <v>0.9363043093321721</v>
       </c>
       <c r="D21">
-        <v>0.02859873896603915</v>
+        <v>0.06520645389323221</v>
       </c>
       <c r="E21">
-        <v>0.3396561256144039</v>
+        <v>0.3334688870152576</v>
       </c>
       <c r="F21">
-        <v>3.336623525427854</v>
+        <v>0.7188064803778076</v>
       </c>
       <c r="G21">
-        <v>0.0007377249119165094</v>
+        <v>0.0007585533639375551</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.686938961451858</v>
+        <v>1.62608668460048</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.639729326222707</v>
+        <v>1.851702048239986</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.631711519938449</v>
+        <v>4.379683765020729</v>
       </c>
       <c r="C22">
-        <v>1.100576254178975</v>
+        <v>1.000661435557873</v>
       </c>
       <c r="D22">
-        <v>0.02898811129234957</v>
+        <v>0.06938245325667936</v>
       </c>
       <c r="E22">
-        <v>0.3691941391087639</v>
+        <v>0.3618053520295916</v>
       </c>
       <c r="F22">
-        <v>3.599512727740091</v>
+        <v>0.769445268180263</v>
       </c>
       <c r="G22">
-        <v>0.0007304254200634471</v>
+        <v>0.0007547046603990056</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.830563106106723</v>
+        <v>1.753179248151085</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.845237604218326</v>
+        <v>1.973431693637792</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.442188791808917</v>
+        <v>4.217437212744869</v>
       </c>
       <c r="C23">
-        <v>1.056661525970128</v>
+        <v>0.9662775514636905</v>
       </c>
       <c r="D23">
-        <v>0.02876488855629589</v>
+        <v>0.06715170533446013</v>
       </c>
       <c r="E23">
-        <v>0.3533036209176714</v>
+        <v>0.3465721343257329</v>
       </c>
       <c r="F23">
-        <v>3.458118212528376</v>
+        <v>0.7421818911373066</v>
       </c>
       <c r="G23">
-        <v>0.0007343211819059725</v>
+        <v>0.000756754266311721</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.753479282041283</v>
+        <v>1.685179947721835</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.734665226378823</v>
+        <v>1.907692742201732</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.741740558721972</v>
+        <v>3.607153944440881</v>
       </c>
       <c r="C24">
-        <v>0.8943018367155275</v>
+        <v>0.8367575068595556</v>
       </c>
       <c r="D24">
-        <v>0.0282326346405064</v>
+        <v>0.05874150221053753</v>
       </c>
       <c r="E24">
-        <v>0.2956612675156265</v>
+        <v>0.2911361039283449</v>
       </c>
       <c r="F24">
-        <v>2.944718865859045</v>
+        <v>0.6438601180093144</v>
       </c>
       <c r="G24">
-        <v>0.0007491024241633063</v>
+        <v>0.0007646215241510464</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.470196950828495</v>
+        <v>1.431061984864726</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.333992045091364</v>
+        <v>1.674785254033679</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.014499145589241</v>
+        <v>2.95559801854813</v>
       </c>
       <c r="C25">
-        <v>0.7254934984353554</v>
+        <v>0.6981306330009147</v>
       </c>
       <c r="D25">
-        <v>0.02818649158581366</v>
+        <v>0.04972732689316928</v>
       </c>
       <c r="E25">
-        <v>0.2376889984814738</v>
+        <v>0.2352907334303396</v>
       </c>
       <c r="F25">
-        <v>2.42830332290491</v>
+        <v>0.5467924254158447</v>
       </c>
       <c r="G25">
-        <v>0.0007652405505317891</v>
+        <v>0.0007733634920481167</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.178824070140557</v>
+        <v>1.162704817380337</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.932410478334958</v>
+        <v>1.45292182745132</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_35/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.479542176748112</v>
+        <v>2.47263423515767</v>
       </c>
       <c r="C2">
-        <v>0.5965930520935387</v>
+        <v>0.6368334976459948</v>
       </c>
       <c r="D2">
-        <v>0.04311690701489113</v>
+        <v>0.06987369448709302</v>
       </c>
       <c r="E2">
-        <v>0.1967928356842137</v>
+        <v>0.282237064455515</v>
       </c>
       <c r="F2">
-        <v>0.4816401892242865</v>
+        <v>0.2940758922819171</v>
       </c>
       <c r="G2">
-        <v>0.0007800506160781202</v>
+        <v>0.19026329765898</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.003211613593297802</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1704434950989651</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.09402909748428456</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.9686349301324952</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.310329790599837</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.957839754787102</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.7110782564905946</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.158281802062788</v>
+        <v>2.164280503543637</v>
       </c>
       <c r="C3">
-        <v>0.5279387110420544</v>
+        <v>0.5641526293825621</v>
       </c>
       <c r="D3">
-        <v>0.03864381683560936</v>
+        <v>0.06126119481051262</v>
       </c>
       <c r="E3">
-        <v>0.1719972415108586</v>
+        <v>0.2554460395423988</v>
       </c>
       <c r="F3">
-        <v>0.4407969280248381</v>
+        <v>0.2715409423848314</v>
       </c>
       <c r="G3">
-        <v>0.0007847524405064478</v>
+        <v>0.1760438704850458</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.001858498289146193</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1688474094447869</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.1016230907781619</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8386809295621163</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.224646528172684</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.8340191499210761</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.6772770947386277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.961427101248177</v>
+        <v>1.974588020852991</v>
       </c>
       <c r="C4">
-        <v>0.4858122416594881</v>
+        <v>0.5194430020696643</v>
       </c>
       <c r="D4">
-        <v>0.03589790986656993</v>
+        <v>0.05595994249043912</v>
       </c>
       <c r="E4">
-        <v>0.1573105314415741</v>
+        <v>0.2389803442243803</v>
       </c>
       <c r="F4">
-        <v>0.4171622227967831</v>
+        <v>0.2583604113741913</v>
       </c>
       <c r="G4">
-        <v>0.0007877273117862924</v>
+        <v>0.1678871547251717</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.00119023525874884</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1682457299321314</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.1067685915336156</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7594768759424682</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.176836790746933</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.7579913452491454</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.6585241134405777</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.881271526957335</v>
+        <v>1.897184226520068</v>
       </c>
       <c r="C5">
-        <v>0.4686456521566811</v>
+        <v>0.5012002537387445</v>
       </c>
       <c r="D5">
-        <v>0.03477872158889284</v>
+        <v>0.05379602999857269</v>
       </c>
       <c r="E5">
-        <v>0.1514470252911835</v>
+        <v>0.2322635095172849</v>
       </c>
       <c r="F5">
-        <v>0.4078674755204261</v>
+        <v>0.2531444135698351</v>
       </c>
       <c r="G5">
-        <v>0.0007889622739025715</v>
+        <v>0.1646984660436743</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0009559469108052498</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1680915994514436</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.1089815096170295</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7273233837491873</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.158477396443686</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.7270017119100061</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.651357441881288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.867964624639313</v>
+        <v>1.884324873004118</v>
       </c>
       <c r="C6">
-        <v>0.4657949861008888</v>
+        <v>0.4981695952659777</v>
       </c>
       <c r="D6">
-        <v>0.03459285882104979</v>
+        <v>0.05343648752917574</v>
       </c>
       <c r="E6">
-        <v>0.1504803435946656</v>
+        <v>0.2311476819981522</v>
       </c>
       <c r="F6">
-        <v>0.4063436778118614</v>
+        <v>0.2522873944576531</v>
       </c>
       <c r="G6">
-        <v>0.0007891687240758821</v>
+        <v>0.1641768951169311</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0009192593901775625</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1680713898628952</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.1093558227260694</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7219910357469246</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.155494335979625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.7218552365840836</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.6501953358060462</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.960345880969328</v>
+        <v>1.973544556026184</v>
       </c>
       <c r="C7">
-        <v>0.4855807342703997</v>
+        <v>0.5191970708130214</v>
       </c>
       <c r="D7">
-        <v>0.03588281739531141</v>
+        <v>0.05593077420967774</v>
       </c>
       <c r="E7">
-        <v>0.1572309799843836</v>
+        <v>0.2388897905013962</v>
       </c>
       <c r="F7">
-        <v>0.4170355414461397</v>
+        <v>0.258289450957875</v>
       </c>
       <c r="G7">
-        <v>0.0007877438743203458</v>
+        <v>0.1678436151612104</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.001186925251210114</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1682432878464297</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.1067979725681898</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7590427774459272</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.176584747584656</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.757573448718091</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.6584255726696711</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.368665682194489</v>
+        <v>2.366381673214903</v>
       </c>
       <c r="C8">
-        <v>0.5729111308889969</v>
+        <v>0.611788962223585</v>
       </c>
       <c r="D8">
-        <v>0.04157423668338822</v>
+        <v>0.06690663994267254</v>
       </c>
       <c r="E8">
-        <v>0.1881230625413508</v>
+        <v>0.2730010133212488</v>
       </c>
       <c r="F8">
-        <v>0.4672415583277001</v>
+        <v>0.2861636698301453</v>
       </c>
       <c r="G8">
-        <v>0.0007816539061676356</v>
+        <v>0.1852356891861362</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.002709581390678006</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1698121409666768</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.09654405511320086</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9236890185640121</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.279738066272785</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.9151421446072519</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.6989911718081885</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.174371444920155</v>
+        <v>3.134469178477843</v>
       </c>
       <c r="C9">
-        <v>0.7447197301738697</v>
+        <v>0.7928232024178214</v>
       </c>
       <c r="D9">
-        <v>0.05275820811017695</v>
+        <v>0.08834184463326977</v>
       </c>
       <c r="E9">
-        <v>0.2536466480386821</v>
+        <v>0.3399070441667078</v>
       </c>
       <c r="F9">
-        <v>0.5784192468172265</v>
+        <v>0.3464927043871526</v>
       </c>
       <c r="G9">
-        <v>0.0007703817649448358</v>
+        <v>0.2243266400023245</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.007117954746914679</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1760824513451311</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.08051484871144865</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.252465228985187</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.524148143433109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>1.224487092869623</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.7957321413226452</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.772162567319526</v>
+        <v>3.717119390374364</v>
       </c>
       <c r="C10">
-        <v>0.8718070125367774</v>
+        <v>0.9292774969736683</v>
       </c>
       <c r="D10">
-        <v>0.06101852461515733</v>
+        <v>0.1052725040263027</v>
       </c>
       <c r="E10">
-        <v>0.3058319589690015</v>
+        <v>0.3626087265476059</v>
       </c>
       <c r="F10">
-        <v>0.6697682029141276</v>
+        <v>0.3887047659866454</v>
       </c>
       <c r="G10">
-        <v>0.0007624675564232591</v>
+        <v>0.2508260872628512</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.01119045024566523</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1799150752862673</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.06958398460647963</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.499510573883811</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.735463428787853</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.415284439600143</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.8604380119052166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.046070613233383</v>
+        <v>4.151738169155294</v>
       </c>
       <c r="C11">
-        <v>0.9299386952976079</v>
+        <v>1.023825790801027</v>
       </c>
       <c r="D11">
-        <v>0.06479324920951512</v>
+        <v>0.1240554075175595</v>
       </c>
       <c r="E11">
-        <v>0.3307072206753716</v>
+        <v>0.1902966445529266</v>
       </c>
       <c r="F11">
-        <v>0.7138894887817457</v>
+        <v>0.3558370959528361</v>
       </c>
       <c r="G11">
-        <v>0.0007589370109541714</v>
+        <v>0.2146928279137157</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02868282481519557</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.156990927704328</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.05026265600884905</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.613558708481179</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.839970439065524</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.193040543426051</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.7360395592270947</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.150138058462574</v>
+        <v>4.404469603027735</v>
       </c>
       <c r="C12">
-        <v>0.9520092885211398</v>
+        <v>1.076652046668215</v>
       </c>
       <c r="D12">
-        <v>0.06622577711996769</v>
+        <v>0.1370984384646761</v>
       </c>
       <c r="E12">
-        <v>0.3403140779537637</v>
+        <v>0.1059016467949601</v>
       </c>
       <c r="F12">
-        <v>0.7310086721688123</v>
+        <v>0.3201859767622892</v>
       </c>
       <c r="G12">
-        <v>0.0007576092075476806</v>
+        <v>0.1808866819411534</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06627423043865122</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1376955516675764</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.03902047125360664</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.65702824653583</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.880885344043065</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.9839982883298148</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.6240442979552228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.127708918850828</v>
+        <v>4.529133901672139</v>
       </c>
       <c r="C13">
-        <v>0.9472532436856227</v>
+        <v>1.099824328345619</v>
       </c>
       <c r="D13">
-        <v>0.06591710634317849</v>
+        <v>0.1463326005740839</v>
       </c>
       <c r="E13">
-        <v>0.3382363407973443</v>
+        <v>0.083016052293031</v>
       </c>
       <c r="F13">
-        <v>0.7273027360857327</v>
+        <v>0.2801265467851906</v>
       </c>
       <c r="G13">
-        <v>0.0007578947822038062</v>
+        <v>0.1467027419732574</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1208153138942691</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1199176071491976</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.03292556278028247</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.647653042024217</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.87201168258963</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.7743539281543192</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.5143300939241868</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.054625031281148</v>
+        <v>4.558213654914482</v>
       </c>
       <c r="C14">
-        <v>0.9317532362158261</v>
+        <v>1.102570902897071</v>
       </c>
       <c r="D14">
-        <v>0.06491103749287674</v>
+        <v>0.1510821414221653</v>
       </c>
       <c r="E14">
-        <v>0.3314936869576215</v>
+        <v>0.1029453071082251</v>
       </c>
       <c r="F14">
-        <v>0.7152893925850634</v>
+        <v>0.2504745996141935</v>
       </c>
       <c r="G14">
-        <v>0.0007588275938993057</v>
+        <v>0.1230984431063149</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1693155019717238</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1083597112407872</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.03129597863682676</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.617129064260013</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.843308849391263</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.631261414840111</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.4400310644473393</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.009905805224548</v>
+        <v>4.536405837450786</v>
       </c>
       <c r="C15">
-        <v>0.9222668683255222</v>
+        <v>1.096589055045627</v>
       </c>
       <c r="D15">
-        <v>0.06429521887337586</v>
+        <v>0.1513012850839033</v>
       </c>
       <c r="E15">
-        <v>0.3273887358693059</v>
+        <v>0.112215577427893</v>
       </c>
       <c r="F15">
-        <v>0.7079857736970041</v>
+        <v>0.2422112605333737</v>
       </c>
       <c r="G15">
-        <v>0.0007594001305821337</v>
+        <v>0.1169874568770339</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1815055076302201</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1057581336435689</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.03159405760374256</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.598470299279541</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.825906324211275</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.594248684331852</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.4215927588214043</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.754306769623327</v>
+        <v>4.253874991937437</v>
       </c>
       <c r="C16">
-        <v>0.8680153487705411</v>
+        <v>1.031776989177331</v>
       </c>
       <c r="D16">
-        <v>0.06077223630414608</v>
+        <v>0.1417531952924236</v>
       </c>
       <c r="E16">
-        <v>0.3042311379211711</v>
+        <v>0.1075815390124468</v>
       </c>
       <c r="F16">
-        <v>0.6669399503029325</v>
+        <v>0.2320383855982584</v>
       </c>
       <c r="G16">
-        <v>0.0007626996142194248</v>
+        <v>0.1123278118612276</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1673470642614774</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1074393468166761</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.03650261751146322</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.492094316592301</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.728813558280336</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.5617533146824769</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.4150229323333292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.598051317013528</v>
+        <v>4.022632888584212</v>
       </c>
       <c r="C17">
-        <v>0.8348233547657742</v>
+        <v>0.9808186652645077</v>
       </c>
       <c r="D17">
-        <v>0.05861582386378217</v>
+        <v>0.1319283233697206</v>
       </c>
       <c r="E17">
-        <v>0.290331806428739</v>
+        <v>0.08774401271172927</v>
       </c>
       <c r="F17">
-        <v>0.6424459302659074</v>
+        <v>0.2400011928469468</v>
       </c>
       <c r="G17">
-        <v>0.0007647409806906894</v>
+        <v>0.1212037591495942</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1289097997187838</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1148852199249646</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.04114867073403539</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.427291699352836</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.671488910187207</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.6099196389310748</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.4492984098068717</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.508358741345717</v>
+        <v>3.81212595250787</v>
       </c>
       <c r="C18">
-        <v>0.8157614743366537</v>
+        <v>0.9365822290991161</v>
       </c>
       <c r="D18">
-        <v>0.05737707457650743</v>
+        <v>0.1210386078063692</v>
       </c>
       <c r="E18">
-        <v>0.2824426329386398</v>
+        <v>0.08394364748567584</v>
       </c>
       <c r="F18">
-        <v>0.628596408915584</v>
+        <v>0.2650162225014512</v>
       </c>
       <c r="G18">
-        <v>0.0007659217350748539</v>
+        <v>0.1438793739066995</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07621050134763152</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1285793722907087</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.04735352288347228</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.390172984070304</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.639297120973055</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.7429652323126774</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.5259705426640124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.478019764930366</v>
+        <v>3.637356530819829</v>
       </c>
       <c r="C19">
-        <v>0.8093121447456326</v>
+        <v>0.9017403301449463</v>
       </c>
       <c r="D19">
-        <v>0.05695790447595783</v>
+        <v>0.1104658958097673</v>
       </c>
       <c r="E19">
-        <v>0.2797889033538752</v>
+        <v>0.1402612786932451</v>
       </c>
       <c r="F19">
-        <v>0.6239469801885065</v>
+        <v>0.3032033154165248</v>
       </c>
       <c r="G19">
-        <v>0.0007663226798778748</v>
+        <v>0.1781020962795807</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.032072998074824</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1471525862098488</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.05635386622785798</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.377630454325683</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.628527537826272</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.9510381913140549</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.6373953953036704</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.614665774630851</v>
+        <v>3.564855473867624</v>
       </c>
       <c r="C20">
-        <v>0.8383535893412386</v>
+        <v>0.8935881057475967</v>
       </c>
       <c r="D20">
-        <v>0.05884521137074472</v>
+        <v>0.1008748603720164</v>
       </c>
       <c r="E20">
-        <v>0.291800345616366</v>
+        <v>0.3554791897503335</v>
       </c>
       <c r="F20">
-        <v>0.6450283513498505</v>
+        <v>0.3770538375889529</v>
       </c>
       <c r="G20">
-        <v>0.0007645229952633828</v>
+        <v>0.2433468389793063</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.01001537943410202</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.1786183673324402</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.0721506880963112</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.434173812181612</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.677509564118878</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.36362081954961</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.841737377867176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.076081677453374</v>
+        <v>3.983124032593651</v>
       </c>
       <c r="C21">
-        <v>0.9363043093321721</v>
+        <v>0.9927827438476697</v>
       </c>
       <c r="D21">
-        <v>0.06520645389323221</v>
+        <v>0.1119942233596021</v>
       </c>
       <c r="E21">
-        <v>0.3334688870152576</v>
+        <v>0.4143015888895079</v>
       </c>
       <c r="F21">
-        <v>0.7188064803778076</v>
+        <v>0.4206071570873036</v>
       </c>
       <c r="G21">
-        <v>0.0007585533639375551</v>
+        <v>0.2741365212079216</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.01389762661860172</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.1869926434653308</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.06787898969655437</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.62608668460048</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.851702048239986</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.567964420410092</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0.9249235848266437</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.379683765020729</v>
+        <v>4.26626101132257</v>
       </c>
       <c r="C22">
-        <v>1.000661435557873</v>
+        <v>1.059472670238506</v>
       </c>
       <c r="D22">
-        <v>0.06938245325667936</v>
+        <v>0.1198788690708881</v>
       </c>
       <c r="E22">
-        <v>0.3618053520295916</v>
+        <v>0.4392497617242199</v>
       </c>
       <c r="F22">
-        <v>0.769445268180263</v>
+        <v>0.4468688259806157</v>
       </c>
       <c r="G22">
-        <v>0.0007547046603990056</v>
+        <v>0.292136155763302</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.01656477229396691</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.191433871558587</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.0646975165752135</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.753179248151085</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.973431693637792</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.682912796819735</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0.9726207018591708</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.217437212744869</v>
+        <v>4.115114763794452</v>
       </c>
       <c r="C23">
-        <v>0.9662775514636905</v>
+        <v>1.02387335168001</v>
       </c>
       <c r="D23">
-        <v>0.06715170533446013</v>
+        <v>0.115670221519423</v>
       </c>
       <c r="E23">
-        <v>0.3465721343257329</v>
+        <v>0.425923402124603</v>
       </c>
       <c r="F23">
-        <v>0.7421818911373066</v>
+        <v>0.4327588081958851</v>
       </c>
       <c r="G23">
-        <v>0.000756754266311721</v>
+        <v>0.2824451795271443</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.01511668301005287</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.1890160778697521</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.06633492668191998</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.685179947721835</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.907692742201732</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.621529169260967</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0.9468865872082404</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.607153944440881</v>
+        <v>3.543227519182153</v>
       </c>
       <c r="C24">
-        <v>0.8367575068595556</v>
+        <v>0.8891460143610743</v>
       </c>
       <c r="D24">
-        <v>0.05874150221053753</v>
+        <v>0.09973787508110377</v>
       </c>
       <c r="E24">
-        <v>0.2911361039283449</v>
+        <v>0.3756705857014921</v>
       </c>
       <c r="F24">
-        <v>0.6438601180093144</v>
+        <v>0.3812943686277421</v>
       </c>
       <c r="G24">
-        <v>0.0007646215241510464</v>
+        <v>0.2475151828191571</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.01014918862845738</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.1808662591213093</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.07382318179812586</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.431061984864726</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.674785254033679</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.389718813823791</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0.8552769481296423</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.95559801854813</v>
+        <v>2.92682786465565</v>
       </c>
       <c r="C25">
-        <v>0.6981306330009147</v>
+        <v>0.7438866527848802</v>
       </c>
       <c r="D25">
-        <v>0.04972732689316928</v>
+        <v>0.08255003293113816</v>
       </c>
       <c r="E25">
-        <v>0.2352907334303396</v>
+        <v>0.3217849500256236</v>
       </c>
       <c r="F25">
-        <v>0.5467924254158447</v>
+        <v>0.3294977230400917</v>
       </c>
       <c r="G25">
-        <v>0.0007733634920481167</v>
+        <v>0.213155056059783</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.005753881280307627</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.1740162853544618</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.08437860092877791</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.162704817380337</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.45292182745132</v>
+        <v>1.140707728783767</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.7675289718473124</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_35/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.47263423515767</v>
+        <v>2.461336795037994</v>
       </c>
       <c r="C2">
-        <v>0.6368334976459948</v>
+        <v>0.6546941689872483</v>
       </c>
       <c r="D2">
-        <v>0.06987369448709302</v>
+        <v>0.07159738748235611</v>
       </c>
       <c r="E2">
-        <v>0.282237064455515</v>
+        <v>0.2771806129915149</v>
       </c>
       <c r="F2">
-        <v>0.2940758922819171</v>
+        <v>0.2906981899202989</v>
       </c>
       <c r="G2">
-        <v>0.19026329765898</v>
+        <v>0.1738218492309045</v>
       </c>
       <c r="H2">
-        <v>0.003211613593297802</v>
+        <v>0.002925590430251312</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1704434950989651</v>
+        <v>0.2144433843460476</v>
       </c>
       <c r="K2">
-        <v>0.09402909748428456</v>
+        <v>0.09519867730993603</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.08514496486994716</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.008545457629546505</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.957839754787102</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.7110782564905946</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.9603557497863875</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.7056171091530388</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.164280503543637</v>
+        <v>2.156698236787804</v>
       </c>
       <c r="C3">
-        <v>0.5641526293825621</v>
+        <v>0.5732941186211917</v>
       </c>
       <c r="D3">
-        <v>0.06126119481051262</v>
+        <v>0.06239773051204622</v>
       </c>
       <c r="E3">
-        <v>0.2554460395423988</v>
+        <v>0.2515865318487869</v>
       </c>
       <c r="F3">
-        <v>0.2715409423848314</v>
+        <v>0.2705164082098648</v>
       </c>
       <c r="G3">
-        <v>0.1760438704850458</v>
+        <v>0.1608896072011348</v>
       </c>
       <c r="H3">
-        <v>0.001858498289146193</v>
+        <v>0.001685805407877883</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1688474094447869</v>
+        <v>0.2127500446061603</v>
       </c>
       <c r="K3">
-        <v>0.1016230907781619</v>
+        <v>0.102973371681383</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.09082923747197036</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.009343918894693992</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.8340191499210761</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.6772770947386277</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.8355072098275684</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.6781745546293507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.974588020852991</v>
+        <v>1.969188390873995</v>
       </c>
       <c r="C4">
-        <v>0.5194430020696643</v>
+        <v>0.523419569052038</v>
       </c>
       <c r="D4">
-        <v>0.05595994249043912</v>
+        <v>0.0567490186267392</v>
       </c>
       <c r="E4">
-        <v>0.2389803442243803</v>
+        <v>0.2358483705985392</v>
       </c>
       <c r="F4">
-        <v>0.2583604113741913</v>
+        <v>0.2586512077390637</v>
       </c>
       <c r="G4">
-        <v>0.1678871547251717</v>
+        <v>0.1534799923665133</v>
       </c>
       <c r="H4">
-        <v>0.00119023525874884</v>
+        <v>0.00107466004885548</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1682457299321314</v>
+        <v>0.2119131572737913</v>
       </c>
       <c r="K4">
-        <v>0.1067685915336156</v>
+        <v>0.1081410289905325</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.09464053369161185</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.01031984804293118</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.7579913452491454</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.6585241134405777</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.7588526796371369</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.6629141141253143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.897184226520068</v>
+        <v>1.892652523254327</v>
       </c>
       <c r="C5">
-        <v>0.5012002537387445</v>
+        <v>0.5031199622504232</v>
       </c>
       <c r="D5">
-        <v>0.05379602999857269</v>
+        <v>0.05444681493361969</v>
       </c>
       <c r="E5">
-        <v>0.2322635095172849</v>
+        <v>0.2294264010529226</v>
       </c>
       <c r="F5">
-        <v>0.2531444135698351</v>
+        <v>0.2539400526034612</v>
       </c>
       <c r="G5">
-        <v>0.1646984660436743</v>
+        <v>0.1505846232241765</v>
       </c>
       <c r="H5">
-        <v>0.0009559469108052498</v>
+        <v>0.0008607690119925016</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1680915994514436</v>
+        <v>0.2116211198990925</v>
       </c>
       <c r="K5">
-        <v>0.1089815096170295</v>
+        <v>0.11034183038735</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.09627442111043294</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.01083656012166045</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.7270017119100061</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.651357441881288</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.7276097719515917</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.6570717056473256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.884324873004118</v>
+        <v>1.879936081119411</v>
       </c>
       <c r="C6">
-        <v>0.4981695952659777</v>
+        <v>0.4997506694467404</v>
       </c>
       <c r="D6">
-        <v>0.05343648752917574</v>
+        <v>0.05406450922981065</v>
       </c>
       <c r="E6">
-        <v>0.2311476819981522</v>
+        <v>0.2283594453744513</v>
       </c>
       <c r="F6">
-        <v>0.2522873944576531</v>
+        <v>0.2531650195376614</v>
       </c>
       <c r="G6">
-        <v>0.1641768951169311</v>
+        <v>0.1501110777111734</v>
       </c>
       <c r="H6">
-        <v>0.0009192593901775625</v>
+        <v>0.0008273018265803067</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1680713898628952</v>
+        <v>0.2115755296892843</v>
       </c>
       <c r="K6">
-        <v>0.1093558227260694</v>
+        <v>0.1107128879367281</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.09655060474754507</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.01092945917245713</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.7218552365840836</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.6501953358060462</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.7224213973199554</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.6561236427715329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.973544556026184</v>
+        <v>1.968137430596812</v>
       </c>
       <c r="C7">
-        <v>0.5191970708130214</v>
+        <v>0.5226990956955717</v>
       </c>
       <c r="D7">
-        <v>0.05593077420967774</v>
+        <v>0.0568528109778299</v>
       </c>
       <c r="E7">
-        <v>0.2388897905013962</v>
+        <v>0.2357552627689401</v>
       </c>
       <c r="F7">
-        <v>0.258289450957875</v>
+        <v>0.2578852970431811</v>
       </c>
       <c r="G7">
-        <v>0.1678436151612104</v>
+        <v>0.1556073052640059</v>
       </c>
       <c r="H7">
-        <v>0.001186925251210114</v>
+        <v>0.001070138421388367</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1682432878464297</v>
+        <v>0.2085492624209664</v>
       </c>
       <c r="K7">
-        <v>0.1067979725681898</v>
+        <v>0.1079864950602261</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.09453893348233855</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.0103058520769983</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.757573448718091</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.6584255726696711</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.7583447743575533</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.6607162759575687</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.366381673214903</v>
+        <v>2.356329055979131</v>
       </c>
       <c r="C8">
-        <v>0.611788962223585</v>
+        <v>0.6250988148897534</v>
       </c>
       <c r="D8">
-        <v>0.06690663994267254</v>
+        <v>0.0688804107895038</v>
       </c>
       <c r="E8">
-        <v>0.2730010133212488</v>
+        <v>0.268344664137814</v>
       </c>
       <c r="F8">
-        <v>0.2861636698301453</v>
+        <v>0.2812975655645644</v>
       </c>
       <c r="G8">
-        <v>0.1852356891861362</v>
+        <v>0.1765039260456547</v>
       </c>
       <c r="H8">
-        <v>0.002709581390678006</v>
+        <v>0.002458388665499744</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1698121409666768</v>
+        <v>0.2029268109522633</v>
       </c>
       <c r="K8">
-        <v>0.09654405511320086</v>
+        <v>0.097212439828537</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.08670087122486514</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.008599416591116515</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.9151421446072519</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.6989911718081885</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.9170095602643116</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.6888200751913303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.134469178477843</v>
+        <v>3.114435876511834</v>
       </c>
       <c r="C9">
-        <v>0.7928232024178214</v>
+        <v>0.8284635995158851</v>
       </c>
       <c r="D9">
-        <v>0.08834184463326977</v>
+        <v>0.09199022750743069</v>
       </c>
       <c r="E9">
-        <v>0.3399070441667078</v>
+        <v>0.3322186571461572</v>
       </c>
       <c r="F9">
-        <v>0.3464927043871526</v>
+        <v>0.3343278549435738</v>
       </c>
       <c r="G9">
-        <v>0.2243266400023245</v>
+        <v>0.2141603154259286</v>
       </c>
       <c r="H9">
-        <v>0.007117954746914679</v>
+        <v>0.006496690123117599</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1760824513451311</v>
+        <v>0.2054254408648717</v>
       </c>
       <c r="K9">
-        <v>0.08051484871144865</v>
+        <v>0.08007010216171295</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.07433376621820642</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.009321399544427678</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.224487092869623</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.7957321413226452</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.228803627844215</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.7653184240279387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.717119390374364</v>
+        <v>3.689052293094164</v>
       </c>
       <c r="C10">
-        <v>0.9292774969736683</v>
+        <v>0.9780367172831745</v>
       </c>
       <c r="D10">
-        <v>0.1052725040263027</v>
+        <v>0.110975470596145</v>
       </c>
       <c r="E10">
-        <v>0.3626087265476059</v>
+        <v>0.3529483350611429</v>
       </c>
       <c r="F10">
-        <v>0.3887047659866454</v>
+        <v>0.3670108653103199</v>
       </c>
       <c r="G10">
-        <v>0.2508260872628512</v>
+        <v>0.2530498820321796</v>
       </c>
       <c r="H10">
-        <v>0.01119045024566523</v>
+        <v>0.01021126720737264</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1799150752862673</v>
+        <v>0.1882761071232224</v>
       </c>
       <c r="K10">
-        <v>0.06958398460647963</v>
+        <v>0.06733644061665167</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.06595578434962057</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.01145180398083845</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.415284439600143</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.8604380119052166</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.420473029481315</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.8028624187003004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.151738169155294</v>
+        <v>4.121250172857685</v>
       </c>
       <c r="C11">
-        <v>1.023825790801027</v>
+        <v>1.060979966474292</v>
       </c>
       <c r="D11">
-        <v>0.1240554075175595</v>
+        <v>0.1316249382311696</v>
       </c>
       <c r="E11">
-        <v>0.1902966445529266</v>
+        <v>0.1820736334170974</v>
       </c>
       <c r="F11">
-        <v>0.3558370959528361</v>
+        <v>0.3290543035672613</v>
       </c>
       <c r="G11">
-        <v>0.2146928279137157</v>
+        <v>0.2476881391294725</v>
       </c>
       <c r="H11">
-        <v>0.02868282481519557</v>
+        <v>0.02765790843157134</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.156990927704328</v>
+        <v>0.1388843857666089</v>
       </c>
       <c r="K11">
-        <v>0.05026265600884905</v>
+        <v>0.04992157819717757</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.05885662475057662</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.00716101426131921</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.193040543426051</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.7360395592270947</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.195359466280536</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.6667299470716017</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.404469603027735</v>
+        <v>4.373699476173613</v>
       </c>
       <c r="C12">
-        <v>1.076652046668215</v>
+        <v>1.102056656148079</v>
       </c>
       <c r="D12">
-        <v>0.1370984384646761</v>
+        <v>0.1452932118849901</v>
       </c>
       <c r="E12">
-        <v>0.1059016467949601</v>
+        <v>0.0987369026798337</v>
       </c>
       <c r="F12">
-        <v>0.3201859767622892</v>
+        <v>0.2938497055190794</v>
       </c>
       <c r="G12">
-        <v>0.1808866819411534</v>
+        <v>0.226913983390304</v>
       </c>
       <c r="H12">
-        <v>0.06627423043865122</v>
+        <v>0.06527649204991093</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1376955516675764</v>
+        <v>0.1159592704748107</v>
       </c>
       <c r="K12">
-        <v>0.03902047125360664</v>
+        <v>0.04111267758283788</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.05600604357451264</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.004030805119194625</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.9839982883298148</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.6240442979552228</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.9844186746888184</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.5588141030489169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.529133901672139</v>
+        <v>4.499806266376197</v>
       </c>
       <c r="C13">
-        <v>1.099824328345619</v>
+        <v>1.11417647315568</v>
       </c>
       <c r="D13">
-        <v>0.1463326005740839</v>
+        <v>0.1536547911195782</v>
       </c>
       <c r="E13">
-        <v>0.083016052293031</v>
+        <v>0.07669817222727815</v>
       </c>
       <c r="F13">
-        <v>0.2801265467851906</v>
+        <v>0.2595378911163166</v>
       </c>
       <c r="G13">
-        <v>0.1467027419732574</v>
+        <v>0.1888214392954879</v>
       </c>
       <c r="H13">
-        <v>0.1208153138942691</v>
+        <v>0.1199041870680446</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1199176071491976</v>
+        <v>0.1088665322843347</v>
       </c>
       <c r="K13">
-        <v>0.03292556278028247</v>
+        <v>0.03749595021547369</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.05527432382084552</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.001747911265393753</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.7743539281543192</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.5143300939241868</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.7736026881278093</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.4672471906041409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.558213654914482</v>
+        <v>4.530669044146919</v>
       </c>
       <c r="C14">
-        <v>1.102570902897071</v>
+        <v>1.109489851268961</v>
       </c>
       <c r="D14">
-        <v>0.1510821414221653</v>
+        <v>0.1570706830081576</v>
       </c>
       <c r="E14">
-        <v>0.1029453071082251</v>
+        <v>0.09707653033449759</v>
       </c>
       <c r="F14">
-        <v>0.2504745996141935</v>
+        <v>0.2358227710445675</v>
       </c>
       <c r="G14">
-        <v>0.1230984431063149</v>
+        <v>0.156429560042362</v>
       </c>
       <c r="H14">
-        <v>0.1693155019717238</v>
+        <v>0.1684841692728725</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1083597112407872</v>
+        <v>0.1090140180607087</v>
       </c>
       <c r="K14">
-        <v>0.03129597863682676</v>
+        <v>0.03718876697029228</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.0554789059374774</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.0006935553049434162</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.631261414840111</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.4400310644473393</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.6299880482092846</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.41005952318325</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.536405837450786</v>
+        <v>4.509669695709874</v>
       </c>
       <c r="C15">
-        <v>1.096589055045627</v>
+        <v>1.101887452790436</v>
       </c>
       <c r="D15">
-        <v>0.1513012850839033</v>
+        <v>0.1566672056311091</v>
       </c>
       <c r="E15">
-        <v>0.112215577427893</v>
+        <v>0.1064917683821172</v>
       </c>
       <c r="F15">
-        <v>0.2422112605333737</v>
+        <v>0.2298667697970558</v>
       </c>
       <c r="G15">
-        <v>0.1169874568770339</v>
+        <v>0.1458363260122724</v>
       </c>
       <c r="H15">
-        <v>0.1815055076302201</v>
+        <v>0.1807089740104288</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1057581336435689</v>
+        <v>0.1112264621978944</v>
       </c>
       <c r="K15">
-        <v>0.03159405760374256</v>
+        <v>0.03772272121120213</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.05570787252699461</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.0005173839493908261</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.594248684331852</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.4215927588214043</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.592921940279318</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.3978692258170327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.253874991937437</v>
+        <v>4.230657943287383</v>
       </c>
       <c r="C16">
-        <v>1.031776989177331</v>
+        <v>1.038504975594549</v>
       </c>
       <c r="D16">
-        <v>0.1417531952924236</v>
+        <v>0.1447604837952099</v>
       </c>
       <c r="E16">
-        <v>0.1075815390124468</v>
+        <v>0.1025046619199301</v>
       </c>
       <c r="F16">
-        <v>0.2320383855982584</v>
+        <v>0.2273393448515719</v>
       </c>
       <c r="G16">
-        <v>0.1123278118612276</v>
+        <v>0.1216483821198864</v>
       </c>
       <c r="H16">
-        <v>0.1673470642614774</v>
+        <v>0.1667106568895917</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1074393468166761</v>
+        <v>0.1329065365008262</v>
       </c>
       <c r="K16">
-        <v>0.03650261751146322</v>
+        <v>0.04256841753477106</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.0573688718471983</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.0006821364317655121</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.5617533146824769</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.4150229323333292</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.5608861049744931</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.4107672941735387</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.022632888584212</v>
+        <v>4.00108724355681</v>
       </c>
       <c r="C17">
-        <v>0.9808186652645077</v>
+        <v>0.9917294079237422</v>
       </c>
       <c r="D17">
-        <v>0.1319283233697206</v>
+        <v>0.1342011901393931</v>
       </c>
       <c r="E17">
-        <v>0.08774401271172927</v>
+        <v>0.08291874320569548</v>
       </c>
       <c r="F17">
-        <v>0.2400011928469468</v>
+        <v>0.2374937427694519</v>
       </c>
       <c r="G17">
-        <v>0.1212037591495942</v>
+        <v>0.1217337911582561</v>
       </c>
       <c r="H17">
-        <v>0.1289097997187838</v>
+        <v>0.1283482138750003</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1148852199249646</v>
+        <v>0.149762927184085</v>
       </c>
       <c r="K17">
-        <v>0.04114867073403539</v>
+        <v>0.04688119947735014</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.05906055101943142</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.001266169764490899</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.6099196389310748</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.4492984098068717</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.6096158723223226</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.4502928604332794</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.81212595250787</v>
+        <v>3.790900901160398</v>
       </c>
       <c r="C18">
-        <v>0.9365822290991161</v>
+        <v>0.9553733865792253</v>
       </c>
       <c r="D18">
-        <v>0.1210386078063692</v>
+        <v>0.1234415729580149</v>
       </c>
       <c r="E18">
-        <v>0.08394364748567584</v>
+        <v>0.07887278573163758</v>
       </c>
       <c r="F18">
-        <v>0.2650162225014512</v>
+        <v>0.2615109453823905</v>
       </c>
       <c r="G18">
-        <v>0.1438793739066995</v>
+        <v>0.1388444136380329</v>
       </c>
       <c r="H18">
-        <v>0.07621050134763152</v>
+        <v>0.07565929542568028</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1285793722907087</v>
+        <v>0.167039663000395</v>
       </c>
       <c r="K18">
-        <v>0.04735352288347228</v>
+        <v>0.05228136043839671</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.0613685080148958</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.002567155077593419</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.7429652323126774</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.5259705426640124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.7436734017387394</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.5235952331416911</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.637356530819829</v>
+        <v>3.615341402827426</v>
       </c>
       <c r="C19">
-        <v>0.9017403301449463</v>
+        <v>0.93093803105333</v>
       </c>
       <c r="D19">
-        <v>0.1104658958097673</v>
+        <v>0.113450822790881</v>
       </c>
       <c r="E19">
-        <v>0.1402612786932451</v>
+        <v>0.1342061350850052</v>
       </c>
       <c r="F19">
-        <v>0.3032033154165248</v>
+        <v>0.2964437599307317</v>
       </c>
       <c r="G19">
-        <v>0.1781020962795807</v>
+        <v>0.1686746952321556</v>
       </c>
       <c r="H19">
-        <v>0.032072998074824</v>
+        <v>0.03146487715758894</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1471525862098488</v>
+        <v>0.1853862633338821</v>
       </c>
       <c r="K19">
-        <v>0.05635386622785798</v>
+        <v>0.05965614818879406</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.06445529299492891</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.00500521344838134</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.9510381913140549</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.6373953953036704</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.9533199122010387</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.6249957859481441</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.564855473867624</v>
+        <v>3.539026339381735</v>
       </c>
       <c r="C20">
-        <v>0.8935881057475967</v>
+        <v>0.9404856266960167</v>
       </c>
       <c r="D20">
-        <v>0.1008748603720164</v>
+        <v>0.1055135264018929</v>
       </c>
       <c r="E20">
-        <v>0.3554791897503335</v>
+        <v>0.3463491833388304</v>
       </c>
       <c r="F20">
-        <v>0.3770538375889529</v>
+        <v>0.360446370904647</v>
       </c>
       <c r="G20">
-        <v>0.2433468389793063</v>
+        <v>0.2342986257357325</v>
       </c>
       <c r="H20">
-        <v>0.01001537943410202</v>
+        <v>0.00914997560084041</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1786183673324402</v>
+        <v>0.2033141772930094</v>
       </c>
       <c r="K20">
-        <v>0.0721506880963112</v>
+        <v>0.07097785194442174</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.06818631042017298</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.01093525473848267</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.36362081954961</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.841737377867176</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.368910357403635</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.7989631963934016</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.983124032593651</v>
+        <v>3.950278554738247</v>
       </c>
       <c r="C21">
-        <v>0.9927827438476697</v>
+        <v>1.043198897643151</v>
       </c>
       <c r="D21">
-        <v>0.1119942233596021</v>
+        <v>0.1211097523999172</v>
       </c>
       <c r="E21">
-        <v>0.4143015888895079</v>
+        <v>0.4032101443942651</v>
       </c>
       <c r="F21">
-        <v>0.4206071570873036</v>
+        <v>0.3820451032442804</v>
       </c>
       <c r="G21">
-        <v>0.2741365212079216</v>
+        <v>0.3190858047551899</v>
       </c>
       <c r="H21">
-        <v>0.01389762661860172</v>
+        <v>0.01262033589595835</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1869926434653308</v>
+        <v>0.1453137036097658</v>
       </c>
       <c r="K21">
-        <v>0.06787898969655437</v>
+        <v>0.06153854236679024</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.06225665942860381</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.01307662541947785</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.567964420410092</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0.9249235848266437</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.572536796297783</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.8175804021143591</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.26626101132257</v>
+        <v>4.228762584569154</v>
       </c>
       <c r="C22">
-        <v>1.059472670238506</v>
+        <v>1.110723563456304</v>
       </c>
       <c r="D22">
-        <v>0.1198788690708881</v>
+        <v>0.1322163476500293</v>
       </c>
       <c r="E22">
-        <v>0.4392497617242199</v>
+        <v>0.4270853062819526</v>
       </c>
       <c r="F22">
-        <v>0.4468688259806157</v>
+        <v>0.3929714565931874</v>
       </c>
       <c r="G22">
-        <v>0.292136155763302</v>
+        <v>0.3800010879800482</v>
       </c>
       <c r="H22">
-        <v>0.01656477229396691</v>
+        <v>0.0149961604284175</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.191433871558587</v>
+        <v>0.1137935245750405</v>
       </c>
       <c r="K22">
-        <v>0.0646975165752135</v>
+        <v>0.0550027570656777</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.05857249688009158</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.01444482299863736</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.682912796819735</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0.9726207018591708</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.686627887331724</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.8205417865246574</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.115114763794452</v>
+        <v>4.080135173537997</v>
       </c>
       <c r="C23">
-        <v>1.02387335168001</v>
+        <v>1.075939852293175</v>
       </c>
       <c r="D23">
-        <v>0.115670221519423</v>
+        <v>0.1258834513975273</v>
       </c>
       <c r="E23">
-        <v>0.425923402124603</v>
+        <v>0.4143130601135852</v>
       </c>
       <c r="F23">
-        <v>0.4327588081958851</v>
+        <v>0.3889221836300081</v>
       </c>
       <c r="G23">
-        <v>0.2824451795271443</v>
+        <v>0.3402617747328662</v>
       </c>
       <c r="H23">
-        <v>0.01511668301005287</v>
+        <v>0.0137154417444259</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1890160778697521</v>
+        <v>0.1347033627945677</v>
       </c>
       <c r="K23">
-        <v>0.06633492668191998</v>
+        <v>0.05881483650002117</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.06059921848380156</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.01386701410349289</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.621529169260967</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0.9468865872082404</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.625963034952662</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.8241734639860283</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.543227519182153</v>
+        <v>3.517358914178203</v>
       </c>
       <c r="C24">
-        <v>0.8891460143610743</v>
+        <v>0.9370151408623713</v>
       </c>
       <c r="D24">
-        <v>0.09973787508110377</v>
+        <v>0.1043918727092006</v>
       </c>
       <c r="E24">
-        <v>0.3756705857014921</v>
+        <v>0.3663283320244588</v>
       </c>
       <c r="F24">
-        <v>0.3812943686277421</v>
+        <v>0.3643823720056005</v>
       </c>
       <c r="G24">
-        <v>0.2475151828191571</v>
+        <v>0.2376042434809662</v>
       </c>
       <c r="H24">
-        <v>0.01014918862845738</v>
+        <v>0.009273286580163166</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1808662591213093</v>
+        <v>0.2058973523411325</v>
       </c>
       <c r="K24">
-        <v>0.07382318179812586</v>
+        <v>0.07235117306768046</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.06874126389789659</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.01139694607823927</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.389718813823791</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.8552769481296423</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.395243990425485</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.8114197868217019</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.92682786465565</v>
+        <v>2.909641152270694</v>
       </c>
       <c r="C25">
-        <v>0.7438866527848802</v>
+        <v>0.7739875773584686</v>
       </c>
       <c r="D25">
-        <v>0.08255003293113816</v>
+        <v>0.08553552801962638</v>
       </c>
       <c r="E25">
-        <v>0.3217849500256236</v>
+        <v>0.3149289149145105</v>
       </c>
       <c r="F25">
-        <v>0.3294977230400917</v>
+        <v>0.3204331523517823</v>
       </c>
       <c r="G25">
-        <v>0.213155056059783</v>
+        <v>0.2002682212875584</v>
       </c>
       <c r="H25">
-        <v>0.005753881280307627</v>
+        <v>0.005250551097802314</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1740162853544618</v>
+        <v>0.2091180731430669</v>
       </c>
       <c r="K25">
-        <v>0.08437860092877791</v>
+        <v>0.08456181163319165</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.0775170395378364</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.008751337630982903</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.140707728783767</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.7675289718473124</v>
+        <v>1.144499754412053</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.7459808601595057</v>
       </c>
     </row>
   </sheetData>
